--- a/data/uploads/indicateurs_urbains.xlsx
+++ b/data/uploads/indicateurs_urbains.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Urban_ai_streamlit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\urban_ai_plus-main\urban_ai_plus-main\data\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6766734-3E18-43CE-9593-7D5B2029B13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2075929C-3056-47C2-A46B-416C5FAC4396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,7 +2193,7 @@
       <c r="G2">
         <v>312</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>570</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       <c r="G9">
         <v>3915</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>570</v>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -3916,11 +3916,11 @@
       <c r="G82">
         <v>776</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -3939,11 +3939,11 @@
       <c r="G83">
         <v>780</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -3962,11 +3962,11 @@
       <c r="G84">
         <v>5629</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -3985,11 +3985,11 @@
       <c r="G85">
         <v>577</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -4008,11 +4008,11 @@
       <c r="G86">
         <v>1102</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -4031,11 +4031,11 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -4054,11 +4054,11 @@
       <c r="G88">
         <v>2068</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -4077,11 +4077,11 @@
       <c r="G89">
         <v>549</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -4100,11 +4100,11 @@
       <c r="G90">
         <v>301</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -4123,11 +4123,11 @@
       <c r="G91">
         <v>2332</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -4146,11 +4146,11 @@
       <c r="G92">
         <v>288</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -4169,11 +4169,11 @@
       <c r="G93">
         <v>1201</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -4192,11 +4192,11 @@
       <c r="G94">
         <v>1587</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -4215,11 +4215,11 @@
       <c r="G95">
         <v>1742</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="G96">
         <v>4862</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>570</v>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>23776</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -4601,11 +4601,11 @@
       <c r="G114">
         <v>1449</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -4804,11 +4804,11 @@
       <c r="G124">
         <v>193</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>6616</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>7436</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -4907,7 +4907,7 @@
       <c r="G129">
         <v>213</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>570</v>
       </c>
     </row>
